--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sectm1a-Cd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sectm1a-Cd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>Cd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,40 +543,40 @@
         <v>0.525327</v>
       </c>
       <c r="I2">
-        <v>0.2213497808315801</v>
+        <v>0.641283184058224</v>
       </c>
       <c r="J2">
-        <v>0.2213497808315802</v>
+        <v>0.641283184058224</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.01351933333333333</v>
+        <v>0.5923286666666666</v>
       </c>
       <c r="N2">
-        <v>0.040558</v>
+        <v>1.776986</v>
       </c>
       <c r="O2">
-        <v>0.001628631206506205</v>
+        <v>0.2489148585411457</v>
       </c>
       <c r="P2">
-        <v>0.001628631206506204</v>
+        <v>0.2489148585411457</v>
       </c>
       <c r="Q2">
-        <v>0.002367356940666666</v>
+        <v>0.1037220804913333</v>
       </c>
       <c r="R2">
-        <v>0.021306212466</v>
+        <v>0.933498724422</v>
       </c>
       <c r="S2">
-        <v>0.0003604971606156203</v>
+        <v>0.1596249130446683</v>
       </c>
       <c r="T2">
-        <v>0.0003604971606156203</v>
+        <v>0.1596249130446683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -611,40 +605,40 @@
         <v>0.525327</v>
       </c>
       <c r="I3">
-        <v>0.2213497808315801</v>
+        <v>0.641283184058224</v>
       </c>
       <c r="J3">
-        <v>0.2213497808315802</v>
+        <v>0.641283184058224</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7930526666666666</v>
+        <v>1.387020666666667</v>
       </c>
       <c r="N3">
-        <v>2.379158</v>
+        <v>4.161062</v>
       </c>
       <c r="O3">
-        <v>0.09553653937592801</v>
+        <v>0.5828690598074137</v>
       </c>
       <c r="P3">
-        <v>0.09553653937592801</v>
+        <v>0.5828690598074138</v>
       </c>
       <c r="Q3">
-        <v>0.1388706594073333</v>
+        <v>0.2428798019193333</v>
       </c>
       <c r="R3">
-        <v>1.249835934666</v>
+        <v>2.185918217274</v>
       </c>
       <c r="S3">
-        <v>0.02114699205226929</v>
+        <v>0.3737841265623216</v>
       </c>
       <c r="T3">
-        <v>0.02114699205226929</v>
+        <v>0.3737841265623217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -673,40 +667,40 @@
         <v>0.525327</v>
       </c>
       <c r="I4">
-        <v>0.2213497808315801</v>
+        <v>0.641283184058224</v>
       </c>
       <c r="J4">
-        <v>0.2213497808315802</v>
+        <v>0.641283184058224</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.494468333333333</v>
+        <v>0.4002943333333334</v>
       </c>
       <c r="N4">
-        <v>22.483405</v>
+        <v>1.200883</v>
       </c>
       <c r="O4">
-        <v>0.9028348294175658</v>
+        <v>0.1682160816514405</v>
       </c>
       <c r="P4">
-        <v>0.9028348294175658</v>
+        <v>0.1682160816514405</v>
       </c>
       <c r="Q4">
-        <v>1.312348855381666</v>
+        <v>0.07009514041566667</v>
       </c>
       <c r="R4">
-        <v>11.811139698435</v>
+        <v>0.630856263741</v>
       </c>
       <c r="S4">
-        <v>0.1998422916186952</v>
+        <v>0.107874144451234</v>
       </c>
       <c r="T4">
-        <v>0.1998422916186952</v>
+        <v>0.107874144451234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,40 +729,40 @@
         <v>0.209302</v>
       </c>
       <c r="I5">
-        <v>0.08819069232613473</v>
+        <v>0.2555015314075889</v>
       </c>
       <c r="J5">
-        <v>0.08819069232613475</v>
+        <v>0.2555015314075888</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01351933333333333</v>
+        <v>0.5923286666666666</v>
       </c>
       <c r="N5">
-        <v>0.040558</v>
+        <v>1.776986</v>
       </c>
       <c r="O5">
-        <v>0.001628631206506205</v>
+        <v>0.2489148585411457</v>
       </c>
       <c r="P5">
-        <v>0.001628631206506204</v>
+        <v>0.2489148585411457</v>
       </c>
       <c r="Q5">
-        <v>0.0009432078351111111</v>
+        <v>0.04132519153022222</v>
       </c>
       <c r="R5">
-        <v>0.008488870515999999</v>
+        <v>0.371926723772</v>
       </c>
       <c r="S5">
-        <v>0.0001436301136457303</v>
+        <v>0.06359812754736607</v>
       </c>
       <c r="T5">
-        <v>0.0001436301136457303</v>
+        <v>0.06359812754736606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,40 +791,40 @@
         <v>0.209302</v>
       </c>
       <c r="I6">
-        <v>0.08819069232613473</v>
+        <v>0.2555015314075889</v>
       </c>
       <c r="J6">
-        <v>0.08819069232613475</v>
+        <v>0.2555015314075888</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7930526666666666</v>
+        <v>1.387020666666667</v>
       </c>
       <c r="N6">
-        <v>2.379158</v>
+        <v>4.161062</v>
       </c>
       <c r="O6">
-        <v>0.09553653937592801</v>
+        <v>0.5828690598074137</v>
       </c>
       <c r="P6">
-        <v>0.09553653937592801</v>
+        <v>0.5828690598074138</v>
       </c>
       <c r="Q6">
-        <v>0.05532916974622222</v>
+        <v>0.09676873319155556</v>
       </c>
       <c r="R6">
-        <v>0.497962527716</v>
+        <v>0.870918598724</v>
       </c>
       <c r="S6">
-        <v>0.008425433550006124</v>
+        <v>0.1489239373908957</v>
       </c>
       <c r="T6">
-        <v>0.008425433550006125</v>
+        <v>0.1489239373908957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,40 +853,40 @@
         <v>0.209302</v>
       </c>
       <c r="I7">
-        <v>0.08819069232613473</v>
+        <v>0.2555015314075889</v>
       </c>
       <c r="J7">
-        <v>0.08819069232613475</v>
+        <v>0.2555015314075888</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>7.494468333333333</v>
+        <v>0.4002943333333334</v>
       </c>
       <c r="N7">
-        <v>22.483405</v>
+        <v>1.200883</v>
       </c>
       <c r="O7">
-        <v>0.9028348294175658</v>
+        <v>0.1682160816514405</v>
       </c>
       <c r="P7">
-        <v>0.9028348294175658</v>
+        <v>0.1682160816514405</v>
       </c>
       <c r="Q7">
-        <v>0.5228690703677777</v>
+        <v>0.02792746818511111</v>
       </c>
       <c r="R7">
-        <v>4.705821633309999</v>
+        <v>0.251347213666</v>
       </c>
       <c r="S7">
-        <v>0.07962162866248287</v>
+        <v>0.04297946646932706</v>
       </c>
       <c r="T7">
-        <v>0.07962162866248289</v>
+        <v>0.04297946646932706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +894,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,46 +909,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.124553</v>
+        <v>0.028184</v>
       </c>
       <c r="H8">
-        <v>0.373659</v>
+        <v>0.084552</v>
       </c>
       <c r="I8">
-        <v>0.1574435308974171</v>
+        <v>0.1032152845341872</v>
       </c>
       <c r="J8">
-        <v>0.1574435308974171</v>
+        <v>0.1032152845341872</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.01351933333333333</v>
+        <v>0.5923286666666666</v>
       </c>
       <c r="N8">
-        <v>0.040558</v>
+        <v>1.776986</v>
       </c>
       <c r="O8">
-        <v>0.001628631206506205</v>
+        <v>0.2489148585411457</v>
       </c>
       <c r="P8">
-        <v>0.001628631206506204</v>
+        <v>0.2489148585411457</v>
       </c>
       <c r="Q8">
-        <v>0.001683873524666667</v>
+        <v>0.01669419114133333</v>
       </c>
       <c r="R8">
-        <v>0.015154861722</v>
+        <v>0.150247720272</v>
       </c>
       <c r="S8">
-        <v>0.0002564174476820573</v>
+        <v>0.02569181794911131</v>
       </c>
       <c r="T8">
-        <v>0.0002564174476820572</v>
+        <v>0.02569181794911131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +956,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.124553</v>
+        <v>0.028184</v>
       </c>
       <c r="H9">
-        <v>0.373659</v>
+        <v>0.084552</v>
       </c>
       <c r="I9">
-        <v>0.1574435308974171</v>
+        <v>0.1032152845341872</v>
       </c>
       <c r="J9">
-        <v>0.1574435308974171</v>
+        <v>0.1032152845341872</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7930526666666666</v>
+        <v>1.387020666666667</v>
       </c>
       <c r="N9">
-        <v>2.379158</v>
+        <v>4.161062</v>
       </c>
       <c r="O9">
-        <v>0.09553653937592801</v>
+        <v>0.5828690598074137</v>
       </c>
       <c r="P9">
-        <v>0.09553653937592801</v>
+        <v>0.5828690598074138</v>
       </c>
       <c r="Q9">
-        <v>0.09877708879133333</v>
+        <v>0.03909179046933334</v>
       </c>
       <c r="R9">
-        <v>0.8889937991220001</v>
+        <v>0.351826114224</v>
       </c>
       <c r="S9">
-        <v>0.01504161008906622</v>
+        <v>0.06016099585419638</v>
       </c>
       <c r="T9">
-        <v>0.01504161008906622</v>
+        <v>0.06016099585419639</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,232 +1033,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.124553</v>
+        <v>0.028184</v>
       </c>
       <c r="H10">
-        <v>0.373659</v>
+        <v>0.084552</v>
       </c>
       <c r="I10">
-        <v>0.1574435308974171</v>
+        <v>0.1032152845341872</v>
       </c>
       <c r="J10">
-        <v>0.1574435308974171</v>
+        <v>0.1032152845341872</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>7.494468333333333</v>
+        <v>0.4002943333333334</v>
       </c>
       <c r="N10">
-        <v>22.483405</v>
+        <v>1.200883</v>
       </c>
       <c r="O10">
-        <v>0.9028348294175658</v>
+        <v>0.1682160816514405</v>
       </c>
       <c r="P10">
-        <v>0.9028348294175658</v>
+        <v>0.1682160816514405</v>
       </c>
       <c r="Q10">
-        <v>0.9334585143216667</v>
+        <v>0.01128189549066667</v>
       </c>
       <c r="R10">
-        <v>8.401126628895</v>
+        <v>0.101537059416</v>
       </c>
       <c r="S10">
-        <v>0.1421455033606688</v>
+        <v>0.0173624707308795</v>
       </c>
       <c r="T10">
-        <v>0.1421455033606688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.421667</v>
-      </c>
-      <c r="H11">
-        <v>1.265001</v>
-      </c>
-      <c r="I11">
-        <v>0.533015995944868</v>
-      </c>
-      <c r="J11">
-        <v>0.5330159959448681</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01351933333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.040558</v>
-      </c>
-      <c r="O11">
-        <v>0.001628631206506205</v>
-      </c>
-      <c r="P11">
-        <v>0.001628631206506204</v>
-      </c>
-      <c r="Q11">
-        <v>0.005700656728666667</v>
-      </c>
-      <c r="R11">
-        <v>0.051305910558</v>
-      </c>
-      <c r="S11">
-        <v>0.0008680864845627967</v>
-      </c>
-      <c r="T11">
-        <v>0.0008680864845627968</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.421667</v>
-      </c>
-      <c r="H12">
-        <v>1.265001</v>
-      </c>
-      <c r="I12">
-        <v>0.533015995944868</v>
-      </c>
-      <c r="J12">
-        <v>0.5330159959448681</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.7930526666666666</v>
-      </c>
-      <c r="N12">
-        <v>2.379158</v>
-      </c>
-      <c r="O12">
-        <v>0.09553653937592801</v>
-      </c>
-      <c r="P12">
-        <v>0.09553653937592801</v>
-      </c>
-      <c r="Q12">
-        <v>0.3344041387953333</v>
-      </c>
-      <c r="R12">
-        <v>3.009637249158</v>
-      </c>
-      <c r="S12">
-        <v>0.05092250368458637</v>
-      </c>
-      <c r="T12">
-        <v>0.05092250368458638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.421667</v>
-      </c>
-      <c r="H13">
-        <v>1.265001</v>
-      </c>
-      <c r="I13">
-        <v>0.533015995944868</v>
-      </c>
-      <c r="J13">
-        <v>0.5330159959448681</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>7.494468333333333</v>
-      </c>
-      <c r="N13">
-        <v>22.483405</v>
-      </c>
-      <c r="O13">
-        <v>0.9028348294175658</v>
-      </c>
-      <c r="P13">
-        <v>0.9028348294175658</v>
-      </c>
-      <c r="Q13">
-        <v>3.160169978711667</v>
-      </c>
-      <c r="R13">
-        <v>28.441529808405</v>
-      </c>
-      <c r="S13">
-        <v>0.4812254057757189</v>
-      </c>
-      <c r="T13">
-        <v>0.481225405775719</v>
+        <v>0.0173624707308795</v>
       </c>
     </row>
   </sheetData>
